--- a/SchedulingData/static7/pso/scheduling1_18.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,249 +462,249 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>61.12</v>
+        <v>57.16</v>
       </c>
       <c r="E2" t="n">
-        <v>26.568</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>57.16</v>
       </c>
       <c r="D3" t="n">
-        <v>79.84</v>
+        <v>110.9</v>
       </c>
       <c r="E3" t="n">
-        <v>26.656</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79.84</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>145.2</v>
+        <v>69.64</v>
       </c>
       <c r="E4" t="n">
-        <v>22.24</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61.12</v>
+        <v>69.64</v>
       </c>
       <c r="D5" t="n">
-        <v>122.22</v>
+        <v>116.14</v>
       </c>
       <c r="E5" t="n">
-        <v>22.568</v>
+        <v>22.216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>43.24</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>26.876</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>145.2</v>
+        <v>116.14</v>
       </c>
       <c r="D7" t="n">
-        <v>213.84</v>
+        <v>181.74</v>
       </c>
       <c r="E7" t="n">
-        <v>17.976</v>
+        <v>17.276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>122.22</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>183.24</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>18.096</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>183.24</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>236.84</v>
+        <v>54.7</v>
       </c>
       <c r="E9" t="n">
-        <v>14.376</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>110.9</v>
       </c>
       <c r="D10" t="n">
-        <v>60.6</v>
+        <v>168.5</v>
       </c>
       <c r="E10" t="n">
-        <v>25.14</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>61.4</v>
+        <v>38.24</v>
       </c>
       <c r="E11" t="n">
-        <v>25.06</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60.6</v>
+        <v>54.7</v>
       </c>
       <c r="D12" t="n">
-        <v>128.28</v>
+        <v>115.56</v>
       </c>
       <c r="E12" t="n">
-        <v>19.992</v>
+        <v>22.744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>213.84</v>
+        <v>115.56</v>
       </c>
       <c r="D13" t="n">
-        <v>303.14</v>
+        <v>174.94</v>
       </c>
       <c r="E13" t="n">
-        <v>15.616</v>
+        <v>18.916</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>236.84</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>298.84</v>
+        <v>122.2</v>
       </c>
       <c r="E14" t="n">
-        <v>10.296</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="15">
@@ -713,150 +713,150 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>43.24</v>
+        <v>122.2</v>
       </c>
       <c r="D15" t="n">
-        <v>111.98</v>
+        <v>177.2</v>
       </c>
       <c r="E15" t="n">
-        <v>23.132</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>79.90000000000001</v>
+        <v>119.3</v>
       </c>
       <c r="E16" t="n">
-        <v>24.68</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>128.28</v>
+        <v>168.5</v>
       </c>
       <c r="D17" t="n">
-        <v>203.88</v>
+        <v>226.12</v>
       </c>
       <c r="E17" t="n">
-        <v>14.052</v>
+        <v>14.928</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>61.4</v>
+        <v>181.74</v>
       </c>
       <c r="D18" t="n">
-        <v>123.12</v>
+        <v>221.74</v>
       </c>
       <c r="E18" t="n">
-        <v>21.988</v>
+        <v>13.916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>203.88</v>
+        <v>226.12</v>
       </c>
       <c r="D19" t="n">
-        <v>296.38</v>
+        <v>282.78</v>
       </c>
       <c r="E19" t="n">
-        <v>9.891999999999999</v>
+        <v>11.392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>79.90000000000001</v>
+        <v>177.2</v>
       </c>
       <c r="D20" t="n">
-        <v>140.9</v>
+        <v>214.9</v>
       </c>
       <c r="E20" t="n">
-        <v>21.2</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>123.12</v>
+        <v>214.9</v>
       </c>
       <c r="D21" t="n">
-        <v>168.44</v>
+        <v>265.32</v>
       </c>
       <c r="E21" t="n">
-        <v>19.076</v>
+        <v>8.708</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>303.14</v>
+        <v>265.32</v>
       </c>
       <c r="D22" t="n">
-        <v>361.26</v>
+        <v>319.78</v>
       </c>
       <c r="E22" t="n">
-        <v>11.924</v>
+        <v>4.392</v>
       </c>
     </row>
     <row r="23">
@@ -865,131 +865,131 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>296.38</v>
+        <v>221.74</v>
       </c>
       <c r="D23" t="n">
-        <v>358.4</v>
+        <v>283.76</v>
       </c>
       <c r="E23" t="n">
-        <v>6.82</v>
+        <v>10.844</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>140.9</v>
+        <v>283.76</v>
       </c>
       <c r="D24" t="n">
-        <v>187.5</v>
+        <v>322.34</v>
       </c>
       <c r="E24" t="n">
-        <v>17.68</v>
+        <v>8.116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>111.98</v>
+        <v>119.3</v>
       </c>
       <c r="D25" t="n">
-        <v>173.12</v>
+        <v>175.32</v>
       </c>
       <c r="E25" t="n">
-        <v>20.108</v>
+        <v>18.868</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>173.12</v>
+        <v>38.24</v>
       </c>
       <c r="D26" t="n">
-        <v>226.38</v>
+        <v>122.54</v>
       </c>
       <c r="E26" t="n">
-        <v>16.412</v>
+        <v>21.556</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>361.26</v>
+        <v>282.78</v>
       </c>
       <c r="D27" t="n">
-        <v>435.94</v>
+        <v>344.84</v>
       </c>
       <c r="E27" t="n">
-        <v>7.556</v>
+        <v>8.795999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>168.44</v>
+        <v>319.78</v>
       </c>
       <c r="D28" t="n">
-        <v>233.34</v>
+        <v>399.98</v>
       </c>
       <c r="E28" t="n">
-        <v>15.716</v>
+        <v>1.472</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>358.4</v>
+        <v>399.98</v>
       </c>
       <c r="D29" t="n">
-        <v>412.4</v>
+        <v>508.34</v>
       </c>
       <c r="E29" t="n">
-        <v>3.04</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -998,55 +998,55 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>412.4</v>
+        <v>322.34</v>
       </c>
       <c r="D30" t="n">
-        <v>478.04</v>
+        <v>383.84</v>
       </c>
       <c r="E30" t="n">
-        <v>0.076</v>
+        <v>4.596</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>478.04</v>
+        <v>344.84</v>
       </c>
       <c r="D31" t="n">
-        <v>574.29</v>
+        <v>397.74</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>4.636</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>226.38</v>
+        <v>174.94</v>
       </c>
       <c r="D32" t="n">
-        <v>287.94</v>
+        <v>231.14</v>
       </c>
       <c r="E32" t="n">
-        <v>12.876</v>
+        <v>14.916</v>
       </c>
     </row>
     <row r="33">
@@ -1055,55 +1055,55 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>298.84</v>
+        <v>175.32</v>
       </c>
       <c r="D33" t="n">
-        <v>349.34</v>
+        <v>253</v>
       </c>
       <c r="E33" t="n">
-        <v>6.376</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>287.94</v>
+        <v>253</v>
       </c>
       <c r="D34" t="n">
-        <v>360.14</v>
+        <v>319.7</v>
       </c>
       <c r="E34" t="n">
-        <v>10.236</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>349.34</v>
+        <v>383.84</v>
       </c>
       <c r="D35" t="n">
-        <v>435.8</v>
+        <v>439.14</v>
       </c>
       <c r="E35" t="n">
-        <v>2.84</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>574.29</v>
+        <v>439.14</v>
       </c>
       <c r="D36" t="n">
-        <v>640.65</v>
+        <v>519.45</v>
       </c>
       <c r="E36" t="n">
-        <v>26.024</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -1131,112 +1131,112 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>435.94</v>
+        <v>122.54</v>
       </c>
       <c r="D37" t="n">
-        <v>483.74</v>
+        <v>177.34</v>
       </c>
       <c r="E37" t="n">
-        <v>4.916</v>
+        <v>18.196</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>360.14</v>
+        <v>319.7</v>
       </c>
       <c r="D38" t="n">
-        <v>426.74</v>
+        <v>369.44</v>
       </c>
       <c r="E38" t="n">
-        <v>7.156</v>
+        <v>7.296</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>187.5</v>
+        <v>508.34</v>
       </c>
       <c r="D39" t="n">
-        <v>242.7</v>
+        <v>572.14</v>
       </c>
       <c r="E39" t="n">
-        <v>13.78</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>242.7</v>
+        <v>397.74</v>
       </c>
       <c r="D40" t="n">
-        <v>294.2</v>
+        <v>463.16</v>
       </c>
       <c r="E40" t="n">
-        <v>10.26</v>
+        <v>1.204</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>435.8</v>
+        <v>463.16</v>
       </c>
       <c r="D41" t="n">
-        <v>485.56</v>
+        <v>537.55</v>
       </c>
       <c r="E41" t="n">
-        <v>0.464</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>485.56</v>
+        <v>177.34</v>
       </c>
       <c r="D42" t="n">
-        <v>591.03</v>
+        <v>272.02</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>13.828</v>
       </c>
     </row>
     <row r="43">
@@ -1245,264 +1245,264 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>294.2</v>
+        <v>231.14</v>
       </c>
       <c r="D43" t="n">
-        <v>371.92</v>
+        <v>296.6</v>
       </c>
       <c r="E43" t="n">
-        <v>6.608</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>371.92</v>
+        <v>519.45</v>
       </c>
       <c r="D44" t="n">
-        <v>462.42</v>
+        <v>596.09</v>
       </c>
       <c r="E44" t="n">
-        <v>1.668</v>
+        <v>26.976</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>462.42</v>
+        <v>572.14</v>
       </c>
       <c r="D45" t="n">
-        <v>545.78</v>
+        <v>625.36</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>22.588</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>640.65</v>
+        <v>272.02</v>
       </c>
       <c r="D46" t="n">
-        <v>702.09</v>
+        <v>367.22</v>
       </c>
       <c r="E46" t="n">
-        <v>23</v>
+        <v>9.907999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>426.74</v>
+        <v>296.6</v>
       </c>
       <c r="D47" t="n">
-        <v>486.76</v>
+        <v>353.04</v>
       </c>
       <c r="E47" t="n">
-        <v>4.244</v>
+        <v>7.476</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>483.74</v>
+        <v>537.55</v>
       </c>
       <c r="D48" t="n">
-        <v>536.96</v>
+        <v>580.85</v>
       </c>
       <c r="E48" t="n">
-        <v>1.724</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>536.96</v>
+        <v>353.04</v>
       </c>
       <c r="D49" t="n">
-        <v>620.3099999999999</v>
+        <v>421.68</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>4.212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>233.34</v>
+        <v>369.44</v>
       </c>
       <c r="D50" t="n">
-        <v>307.9</v>
+        <v>416.36</v>
       </c>
       <c r="E50" t="n">
-        <v>11.4</v>
+        <v>4.224</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>307.9</v>
+        <v>367.22</v>
       </c>
       <c r="D51" t="n">
-        <v>346.58</v>
+        <v>419.32</v>
       </c>
       <c r="E51" t="n">
-        <v>8.672000000000001</v>
+        <v>5.828</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>591.03</v>
+        <v>421.68</v>
       </c>
       <c r="D52" t="n">
-        <v>645.83</v>
+        <v>472.2</v>
       </c>
       <c r="E52" t="n">
-        <v>26.22</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>702.09</v>
+        <v>472.2</v>
       </c>
       <c r="D53" t="n">
-        <v>746.99</v>
+        <v>546.4</v>
       </c>
       <c r="E53" t="n">
-        <v>19.64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>346.58</v>
+        <v>419.32</v>
       </c>
       <c r="D54" t="n">
-        <v>394.38</v>
+        <v>475.86</v>
       </c>
       <c r="E54" t="n">
-        <v>4.532</v>
+        <v>1.304</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>394.38</v>
+        <v>475.86</v>
       </c>
       <c r="D55" t="n">
-        <v>475.62</v>
+        <v>574.55</v>
       </c>
       <c r="E55" t="n">
-        <v>0.008</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>475.62</v>
+        <v>546.4</v>
       </c>
       <c r="D56" t="n">
-        <v>576.9</v>
+        <v>608.1</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="57">
@@ -1511,36 +1511,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>620.3099999999999</v>
+        <v>574.55</v>
       </c>
       <c r="D57" t="n">
-        <v>687.87</v>
+        <v>633.27</v>
       </c>
       <c r="E57" t="n">
-        <v>27.404</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>576.9</v>
+        <v>608.1</v>
       </c>
       <c r="D58" t="n">
-        <v>657.4</v>
+        <v>687.2</v>
       </c>
       <c r="E58" t="n">
-        <v>27.08</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="59">
@@ -1549,74 +1549,93 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>645.83</v>
+        <v>416.36</v>
       </c>
       <c r="D59" t="n">
-        <v>699.9299999999999</v>
+        <v>481.06</v>
       </c>
       <c r="E59" t="n">
-        <v>22.94</v>
+        <v>1.864</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>687.87</v>
+        <v>481.06</v>
       </c>
       <c r="D60" t="n">
-        <v>752.63</v>
+        <v>588.63</v>
       </c>
       <c r="E60" t="n">
-        <v>24.548</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>657.4</v>
+        <v>596.09</v>
       </c>
       <c r="D61" t="n">
-        <v>717.08</v>
+        <v>656.25</v>
       </c>
       <c r="E61" t="n">
-        <v>23.252</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>545.78</v>
+        <v>580.85</v>
       </c>
       <c r="D62" t="n">
-        <v>600.22</v>
+        <v>655.3099999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>26.736</v>
+        <v>24.504</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>pond46</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>625.36</v>
+      </c>
+      <c r="D63" t="n">
+        <v>694.26</v>
+      </c>
+      <c r="E63" t="n">
+        <v>18.808</v>
       </c>
     </row>
   </sheetData>
